--- a/tables/Res.xlsx
+++ b/tables/Res.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>序号</t>
   </si>
@@ -77,8 +77,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>针筒</t>
+  </si>
+  <si>
+    <t>Adrenaline Shot</t>
+  </si>
+  <si>
+    <t>前置描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注有发亮药剂的旧式针筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物在进行任何能力考验trait roll前，可选择使用这物品。使用这针筒后，玩家掷骰的结果即增加4点。使用后丢弃这牌。</t>
+  </si>
+  <si>
+    <t>是否一次性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护符</t>
+  </si>
+  <si>
+    <t>Amulet of the Ages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌上白银与宝石的祝福</t>
+  </si>
+  <si>
+    <t>人物的力量Might、速度Speed、知识Knowledge及神志Sanity全获上升1个级别。若人物失去这护身符，其力量Might、速度Speed、知识Knowledge及神志Sanity全需下降3个级别。</t>
+  </si>
+  <si>
+    <t>翎毛</t>
+  </si>
+  <si>
+    <t>Angel Feather</t>
+  </si>
+  <si>
+    <t>于掌中飘动的纯白羽毛</t>
+  </si>
+  <si>
+    <t>每当人物需要进行任何掷骰前，可选择使用这物品。使用这纯白羽毛后，玩家即不用掷骰，其结果作0至8点(玩家拣选)计算。</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>文艺复兴风格的金属外衣</t>
+  </si>
+  <si>
+    <t>每当人物受到肉体损伤physical damage时，其损伤可获减低1点。这穿在身上的沉重外衣不可能遭偷窃。</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利异常</t>
+  </si>
+  <si>
+    <t>人物在其回合中选择以力量Might作袭击时，可多掷1颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手铃</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>铿锵有声的铜制手铃</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity上升1个级别。若人物失去这铜铃，其神志Sanity下降1个级别。</t>
+  </si>
+  <si>
+    <t>血剑</t>
+  </si>
+  <si>
+    <t>Blood Dagger</t>
+  </si>
+  <si>
+    <t>手柄注血的邪气匕首</t>
+  </si>
+  <si>
+    <t>人物在其回合中选择以力量Might作袭击时，可多掷3颗游戏骰(骰子数目最多8颗)。其速度Speed亦即时下降1个级别。人物在使用这武器作袭击时，不可使用其他武器。玩家可选不使用这武器作袭击。这物品不可转交或丢弃。若这物品遭到偷窃，失主需掷骰2颗，其点数总和即人物受到的肉体损伤physical damage。</t>
+  </si>
+  <si>
+    <t>瓶子</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>装有墨黑液体的暗色药瓶</t>
+  </si>
+  <si>
+    <t>蜡烛</t>
+  </si>
+  <si>
+    <t>Candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但愿这能驱除黑暗</t>
+  </si>
+  <si>
+    <t>每当玩家因翻开事件牌Event card后而需作能力考验trait roll时，可多掷1颗游戏骰(骰子数目最多8颗)。</t>
+  </si>
+  <si>
+    <t>考验条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品buff类型：0速度，1力量，2精神，3知识，6骰子数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>房间b</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -89,13 +236,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>uff</t>
+      <t>|1|2</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>b</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -106,140 +253,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>uff</t>
+      <t>|1|1</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>针筒</t>
-  </si>
-  <si>
-    <t>Adrenaline Shot</t>
-  </si>
-  <si>
-    <t>前置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注有发亮药剂的旧式针筒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物在进行任何能力考验trait roll前，可选择使用这物品。使用这针筒后，玩家掷骰的结果即增加4点。使用后丢弃这牌。</t>
-  </si>
-  <si>
-    <t>dice+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护符</t>
-  </si>
-  <si>
-    <t>Amulet of the Ages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌上白银与宝石的祝福</t>
-  </si>
-  <si>
-    <t>人物的力量Might、速度Speed、知识Knowledge及神志Sanity全获上升1个级别。若人物失去这护身符，其力量Might、速度Speed、知识Knowledge及神志Sanity全需下降3个级别。</t>
-  </si>
-  <si>
-    <t>翎毛</t>
-  </si>
-  <si>
-    <t>Angel Feather</t>
-  </si>
-  <si>
-    <t>于掌中飘动的纯白羽毛</t>
-  </si>
-  <si>
-    <t>每当人物需要进行任何掷骰前，可选择使用这物品。使用这纯白羽毛后，玩家即不用掷骰，其结果作0至8点(玩家拣选)计算。</t>
-  </si>
-  <si>
-    <t>铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>文艺复兴风格的金属外衣</t>
-  </si>
-  <si>
-    <t>每当人物受到肉体损伤physical damage时，其损伤可获减低1点。这穿在身上的沉重外衣不可能遭偷窃。</t>
-  </si>
-  <si>
-    <t>斧头</t>
-  </si>
-  <si>
-    <t>Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锋利异常</t>
-  </si>
-  <si>
-    <t>人物在其回合中选择以力量Might作袭击时，可多掷1颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手铃</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>铿锵有声的铜制手铃</t>
-  </si>
-  <si>
-    <t>人物的神志Sanity上升1个级别。若人物失去这铜铃，其神志Sanity下降1个级别。</t>
-  </si>
-  <si>
-    <t>血剑</t>
-  </si>
-  <si>
-    <t>Blood Dagger</t>
-  </si>
-  <si>
-    <t>手柄注血的邪气匕首</t>
-  </si>
-  <si>
-    <t>人物在其回合中选择以力量Might作袭击时，可多掷3颗游戏骰(骰子数目最多8颗)。其速度Speed亦即时下降1个级别。人物在使用这武器作袭击时，不可使用其他武器。玩家可选不使用这武器作袭击。这物品不可转交或丢弃。若这物品遭到偷窃，失主需掷骰2颗，其点数总和即人物受到的肉体损伤physical damage。</t>
-  </si>
-  <si>
-    <t>瓶子</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>装有墨黑液体的暗色药瓶</t>
-  </si>
-  <si>
-    <t>蜡烛</t>
-  </si>
-  <si>
-    <t>Candle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但愿这能驱除黑暗</t>
-  </si>
-  <si>
-    <t>每当玩家因翻开事件牌Event card后而需作能力考验trait roll时，可多掷1颗游戏骰(骰子数目最多8颗)。</t>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,11 +625,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -597,12 +637,12 @@
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="9" style="1"/>
+    <col min="10" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,19 +653,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -636,181 +688,340 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Res.xlsx
+++ b/tables/Res.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>序号</t>
   </si>
@@ -28,11 +28,11 @@
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -49,7 +49,7 @@
       </rPr>
       <t>nlishName</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -66,15 +66,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>针筒</t>
@@ -84,33 +84,33 @@
   </si>
   <si>
     <t>前置描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>preDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注有发亮药剂的旧式针筒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>人物在进行任何能力考验trait roll前，可选择使用这物品。使用这针筒后，玩家掷骰的结果即增加4点。使用后丢弃这牌。</t>
   </si>
   <si>
     <t>是否一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>护符</t>
   </si>
   <si>
     <t>Amulet of the Ages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>嵌上白银与宝石的祝福</t>
@@ -132,7 +132,7 @@
   </si>
   <si>
     <t>铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Armor</t>
@@ -148,14 +148,14 @@
   </si>
   <si>
     <t>Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>锋利异常</t>
   </si>
   <si>
     <t>人物在其回合中选择以力量Might作袭击时，可多掷1颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>手铃</t>
@@ -195,7 +195,7 @@
   </si>
   <si>
     <t>Candle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>但愿这能驱除黑暗</t>
@@ -205,23 +205,43 @@
   </si>
   <si>
     <t>考验条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>考验ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>examID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品buff类型：0速度，1力量，2精神，3知识，6骰子数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1|1_1|2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -236,13 +256,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>|1|2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1|1_1|2_2</t>
+  </si>
+  <si>
+    <t>6_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_-1|1_-1|2_-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -253,44 +284,82 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>|1|1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0|0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>_-3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -625,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,12 +706,14 @@
     <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
-    <col min="10" max="11" width="13.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,28 +727,25 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,28 +759,25 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,11 +790,11 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -737,17 +802,14 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -761,28 +823,25 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
         <v>1</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -795,29 +854,26 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-3</v>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
         <v>2</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -830,29 +886,26 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-3</v>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
         <v>2</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -865,29 +918,26 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>-3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -901,28 +951,25 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
         <v>2</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -936,28 +983,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -970,26 +1014,23 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
+      <c r="E10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1002,11 +1043,11 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1014,18 +1055,15 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>0</v>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>

--- a/tables/Res.xlsx
+++ b/tables/Res.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -28,11 +28,11 @@
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -49,7 +49,7 @@
       </rPr>
       <t>nlishName</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -66,15 +66,15 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>针筒</t>
@@ -84,282 +84,209 @@
   </si>
   <si>
     <t>前置描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>preDesc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注有发亮药剂的旧式针筒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物在进行任何能力考验trait roll前，可选择使用这物品。使用这针筒后，玩家掷骰的结果即增加4点。使用后丢弃这牌。</t>
   </si>
   <si>
     <t>是否一次性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>once</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护符</t>
   </si>
   <si>
     <t>Amulet of the Ages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>嵌上白银与宝石的祝福</t>
   </si>
   <si>
+    <t>翎毛</t>
+  </si>
+  <si>
+    <t>Angel Feather</t>
+  </si>
+  <si>
+    <t>于掌中飘动的纯白羽毛</t>
+  </si>
+  <si>
+    <t>每当人物需要进行任何掷骰前，可选择使用这物品。使用这纯白羽毛后，玩家即不用掷骰，其结果作0至8点(玩家拣选)计算。</t>
+  </si>
+  <si>
+    <t>铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>文艺复兴风格的金属外衣</t>
+  </si>
+  <si>
+    <t>每当人物受到肉体损伤physical damage时，其损伤可获减低1点。这穿在身上的沉重外衣不可能遭偷窃。</t>
+  </si>
+  <si>
+    <t>斧头</t>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利异常</t>
+  </si>
+  <si>
+    <t>人物在其回合中选择以力量Might作袭击时，可多掷1颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手铃</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>铿锵有声的铜制手铃</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity上升1个级别。若人物失去这铜铃，其神志Sanity下降1个级别。</t>
+  </si>
+  <si>
+    <t>血剑</t>
+  </si>
+  <si>
+    <t>Blood Dagger</t>
+  </si>
+  <si>
+    <t>手柄注血的邪气匕首</t>
+  </si>
+  <si>
+    <t>瓶子</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>装有墨黑液体的暗色药瓶</t>
+  </si>
+  <si>
+    <t>蜡烛</t>
+  </si>
+  <si>
+    <t>Candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但愿这能驱除黑暗</t>
+  </si>
+  <si>
+    <t>每当玩家因翻开事件牌Event card后而需作能力考验trait roll时，可多掷1颗游戏骰(骰子数目最多8颗)。</t>
+  </si>
+  <si>
+    <t>考验ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>examID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>人物的力量Might、速度Speed、知识Knowledge及神志Sanity全获上升1个级别。若人物失去这护身符，其力量Might、速度Speed、知识Knowledge及神志Sanity全需下降3个级别。</t>
-  </si>
-  <si>
-    <t>翎毛</t>
-  </si>
-  <si>
-    <t>Angel Feather</t>
-  </si>
-  <si>
-    <t>于掌中飘动的纯白羽毛</t>
-  </si>
-  <si>
-    <t>每当人物需要进行任何掷骰前，可选择使用这物品。使用这纯白羽毛后，玩家即不用掷骰，其结果作0至8点(玩家拣选)计算。</t>
-  </si>
-  <si>
-    <t>铠甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>文艺复兴风格的金属外衣</t>
-  </si>
-  <si>
-    <t>每当人物受到肉体损伤physical damage时，其损伤可获减低1点。这穿在身上的沉重外衣不可能遭偷窃。</t>
-  </si>
-  <si>
-    <t>斧头</t>
-  </si>
-  <si>
-    <t>Axe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锋利异常</t>
-  </si>
-  <si>
-    <t>人物在其回合中选择以力量Might作袭击时，可多掷1颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手铃</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>铿锵有声的铜制手铃</t>
-  </si>
-  <si>
-    <t>人物的神志Sanity上升1个级别。若人物失去这铜铃，其神志Sanity下降1个级别。</t>
-  </si>
-  <si>
-    <t>血剑</t>
-  </si>
-  <si>
-    <t>Blood Dagger</t>
-  </si>
-  <si>
-    <t>手柄注血的邪气匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_1|1_1|2_1|3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有数值：0速度，1力量，2神志，3知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人物在其回合中选择以力量Might作袭击时，可多掷3颗游戏骰(骰子数目最多8颗)。其速度Speed亦即时下降1个级别。人物在使用这武器作袭击时，不可使用其他武器。玩家可选不使用这武器作袭击。这物品不可转交或丢弃。若这物品遭到偷窃，失主需掷骰2颗，其点数总和即人物受到的肉体损伤physical damage。</t>
-  </si>
-  <si>
-    <t>瓶子</t>
-  </si>
-  <si>
-    <t>Bottle</t>
-  </si>
-  <si>
-    <t>装有墨黑液体的暗色药瓶</t>
-  </si>
-  <si>
-    <t>蜡烛</t>
-  </si>
-  <si>
-    <t>Candle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>但愿这能驱除黑暗</t>
-  </si>
-  <si>
-    <t>每当玩家因翻开事件牌Event card后而需作能力考验trait roll时，可多掷1颗游戏骰(骰子数目最多8颗)。</t>
-  </si>
-  <si>
-    <t>考验条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>考验ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>examID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>deBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去数值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1|1_1|2_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_1|1_1|2_2</t>
-  </si>
-  <si>
-    <t>6_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_-1|1_-1|2_-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考验时机：0不考验，1拿到时，2使用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_-3|1_-3|2_-3|3_-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动效果（如果需要考验，则考验决定是否可使用）：0无主动，1看牌堆，选择N张置顶，2用狗，3用面具，4以神志攻击，5物理转精神，6力量攻击加成，7骰子增加，8置顶骰子结果最大值，9物理损伤减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -408,14 +335,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -694,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,13 +648,13 @@
     <col min="2" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="10" width="13.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="9" width="13.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,25 +668,31 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -759,25 +706,31 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -791,25 +744,31 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -823,248 +782,314 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:F1048576 J1:XFD1048576 H15:I1048576 H7:I13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I6">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>

--- a/tables/Res.xlsx
+++ b/tables/Res.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
   <si>
     <t>序号</t>
   </si>
@@ -98,14 +98,6 @@
     <t>人物在进行任何能力考验trait roll前，可选择使用这物品。使用这针筒后，玩家掷骰的结果即增加4点。使用后丢弃这牌。</t>
   </si>
   <si>
-    <t>是否一次性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护符</t>
   </si>
   <si>
@@ -271,6 +263,221 @@
   </si>
   <si>
     <t>skillNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物在其回合中选择以力量Might作袭击时，可多掷2颗游戏骰(骰子数目最多8颗)。人物在使用这武器作袭击时，不可使用其他武器。</t>
+  </si>
+  <si>
+    <t>充有不明力量的凶器</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长矛</t>
+  </si>
+  <si>
+    <t>每当人物受到精神损伤mental damage时，玩家可选择将所有伤害转化成肉体损伤physical damage。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破裂断齿的头颅骨</t>
+  </si>
+  <si>
+    <t>Skull</t>
+  </si>
+  <si>
+    <t>颅骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物在其回合中可选择以神志Sanity作袭击，败方所受到伤害即为精神损伤mental damage。在面对没有神志Sanity的目标时，这能力无效。</t>
+  </si>
+  <si>
+    <t>刻有不解铭文的破旧指环</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>指环</t>
+  </si>
+  <si>
+    <t>五芒星状的大徽章人物不受五芒星堂Pentagram Chamber、地窖Crypt及墓园Graveyard的影响。即人物通过这三个房间时，无需进行能力考验。</t>
+  </si>
+  <si>
+    <t>Medallion</t>
+  </si>
+  <si>
+    <t>徽章</t>
+  </si>
+  <si>
+    <t>当玩家使用这面具时，以神志Sanity进行能力考验。骰数总和等于或大于4，人物可把面具带上/除下。只有先把面具带上后，玩家方可除下面具。若玩家带上这面具，知识Knowledge上升2个级别，神志Sanity则下降2个级别。若玩家除下这面具，知识Knowledge下降2个级别，神志Sanity则上升2个级别。骰数总和是0至3，这回合人物无法带上或除下面具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩藏意图的朴实面具</t>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
+  </si>
+  <si>
+    <t>人物的力量Might上升2个级别。神志Sanity下降1个级别。若人物失去这疯癫汉的伴随，其力量Might下降2个级别。神志Sanity上升1个级别。</t>
+  </si>
+  <si>
+    <t>乱语流唾的疯子</t>
+  </si>
+  <si>
+    <t>1_-2|2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2|2_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madman</t>
+  </si>
+  <si>
+    <t>疯汉</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity上升2个级别。若人物失去这圣符，其神志Sanity下降2个级别。</t>
+  </si>
+  <si>
+    <t>俗世风浪中的平静</t>
+  </si>
+  <si>
+    <t>2_-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Symbol</t>
+  </si>
+  <si>
+    <t>圣符</t>
+  </si>
+  <si>
+    <t>人物的神志Sanity及知识Knowledge上升1个级别。若人物失去这小女孩的伴随，其神志Sanity及知识Knowledge下降1个级别。</t>
+  </si>
+  <si>
+    <t>遭困的孤单女孩</t>
+  </si>
+  <si>
+    <t>2_-1|3_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1|3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl</t>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t>人物的力量Might及神志Sanity上升1个级别。若人物失去这狗的伴随，其力量Might及神志Sanity下降1个级别。在玩家回合中，人物可差这动物走往最多6格外的一个房间，并随即返回人物身边。其间这动物可捡拾/携带/丢弃1件物件。这动物不可使用单向的通道。敌对的人物/怪物不会对牠的移动构成妨碍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似友善的癞皮狗</t>
+  </si>
+  <si>
+    <t>1_-1|2_-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1|2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>脏狗</t>
+  </si>
+  <si>
+    <t>当玩家使用水晶球时，依知识Knowledge进行能力考验。骰数总和等于或大于4，人物窥探出未来。玩家可检查物品牌Item card或事件牌Event card的牌叠，从中抽起1张咭牌放在一旁。重新将牌叠洗混后，再把抽起的咭牌放回牌叠顶。骰数总和是1至3，人物只觉眼花撩乱。人物的神志Sanity下降1个级别。骰数总和是0，人物看到地狱景况。人物的神志Sanity下降2个级别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琉璃上的朦胧影象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>水晶球</t>
+  </si>
+  <si>
+    <t>这是一个针对玩家人物的4点力量Might袭击，由玩家右方的另一玩家代掷4颗骰。若玩家胜出这比拼，这咭牌即无效果。否则如常受到肉体损伤physical damage。这咭牌并非物件，保留这牌只作计算已翻开的预兆牌Omen card数目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咆哮、死亡气息、痛楚、黑暗、虚弱人物突然遭某物噬咬。该东西速即消失于暗处。</t>
+  </si>
+  <si>
+    <t>Bite</t>
+  </si>
+  <si>
+    <t>噬咬</t>
+  </si>
+  <si>
+    <t>人物的知识Knowledge上升2个级别。若人物失去这书本，其知识Knowledge下降2个级别。</t>
+  </si>
+  <si>
+    <t>日志？笔记？手稿？疯言？</t>
+  </si>
+  <si>
+    <t>3_-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>书本</t>
+  </si>
+  <si>
+    <t>卡类型：0物品无限次卡，1物品一次性卡，-1预兆卡，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardClassType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,7 +549,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -635,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,25 +886,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
@@ -703,25 +924,25 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
@@ -732,7 +953,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -744,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -770,22 +991,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -800,30 +1021,30 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -838,30 +1059,30 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -876,30 +1097,30 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -914,30 +1135,30 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -952,30 +1173,30 @@
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -990,30 +1211,30 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -1028,27 +1249,27 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1063,33 +1284,488 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:F1048576 J1:XFD1048576 H15:I1048576 H7:I13">
+  <conditionalFormatting sqref="A1:F11 J1:XFD11 H7:I11 H24:XFD1048576 A24:F1048576 A5:A23">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G11 G24:G1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="B12:C23 K12:XFD23">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I6">
+  <conditionalFormatting sqref="E12:J23">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
